--- a/evaluation/results/isolation_forest/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/evaluation_metrics.xlsx
@@ -488,31 +488,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="C2">
-        <v>0.8607242339832869</v>
+        <v>0.8205882352941176</v>
       </c>
       <c r="D2">
-        <v>0.515</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="E2">
-        <v>0.6444212721584984</v>
+        <v>0.6384439359267735</v>
       </c>
       <c r="F2">
-        <v>0.710683520599251</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="G2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="H2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J2">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -547,13 +547,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.6245161290322581</v>
+        <v>0.6497252747252747</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.8857677902621723</v>
       </c>
       <c r="D2">
-        <v>0.7394957983193278</v>
+        <v>0.7496038034865293</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -564,16 +564,16 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.8607242339832869</v>
+        <v>0.8205882352941176</v>
       </c>
       <c r="C3">
-        <v>0.515</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="D3">
-        <v>0.6444212721584984</v>
+        <v>0.6384439359267735</v>
       </c>
       <c r="E3">
-        <v>600</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -581,16 +581,16 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="C4">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="D4">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="E4">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -598,16 +598,16 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>0.7426201815077724</v>
+        <v>0.7351567550096962</v>
       </c>
       <c r="C5">
-        <v>0.710683520599251</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="D5">
-        <v>0.691958535238913</v>
+        <v>0.6940238697066514</v>
       </c>
       <c r="E5">
-        <v>1134</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -615,16 +615,16 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>0.7494939623396807</v>
+        <v>0.7351567550096962</v>
       </c>
       <c r="C6">
-        <v>0.699294532627866</v>
+        <v>0.704119850187266</v>
       </c>
       <c r="D6">
-        <v>0.6891918162236509</v>
+        <v>0.6940238697066513</v>
       </c>
       <c r="E6">
-        <v>1134</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +653,10 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -664,10 +664,10 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
